--- a/medicine/Enfance/L'Idole_verte/L'Idole_verte.xlsx
+++ b/medicine/Enfance/L'Idole_verte/L'Idole_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Idole_verte</t>
+          <t>L'Idole_verte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Idole verte est le 24e roman de la série Bob Morane, écrit par Henri Vernes et publié en 1957 par les éditions Gérard et Cie dans la collection Marabout junior (n°110).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Idole_verte</t>
+          <t>L'Idole_verte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bob Morane
 Bill Ballantine : ami de Bob Morane et son compagnon d'aventures depuis toujours.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Idole_verte</t>
+          <t>L'Idole_verte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob Morane et Bill Ballantine font une escale à Iquitos alors qu'ils travaillent sur un reportage sur le fleuve Amazone pour le magazine Reflets. 
 Ils y font la rencontre de la jeune Lil Haston, qui cherche de l'aide pour retrouver son père, disparu il y a cinq ans alors qu'il tentait de découvrir les vestiges d'un temple inca aux abords du río Pastaza en Équateur. Bob et Bill acceptent de l'aider et s'engagent sur le territoire des redoutables Jivaros Yaupis, irréductibles Indiens qui n'y laissent entrer personne. 
